--- a/product.xlsx
+++ b/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4ec0c84bac4ab77/Desktop/ProjectMilkFE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{A2B9246F-CB36-4DAC-973F-16AE70772692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91D5AE15-61D3-4C61-8987-E08D6B8CF20B}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="14_{A2B9246F-CB36-4DAC-973F-16AE70772692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8863BB53-98F9-4332-B1F5-E0CEE632300C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E4F2DB5-627F-4314-BE70-A825391ED28A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -107,30 +107,9 @@
     <t>Vietnam-1</t>
   </si>
   <si>
-    <t>Sữa bột Anlene Gold 3X hương Vani</t>
-  </si>
-  <si>
     <t>Ductch Lady-3</t>
   </si>
   <si>
-    <t>Sữa bột Rontameal Nutri Pro Active</t>
-  </si>
-  <si>
-    <t>SP021</t>
-  </si>
-  <si>
-    <t>SP022</t>
-  </si>
-  <si>
-    <t>SP023</t>
-  </si>
-  <si>
-    <t>Abbott-5</t>
-  </si>
-  <si>
-    <t>Cho bà bầu-3</t>
-  </si>
-  <si>
     <t>Sữa tươi-2</t>
   </si>
   <si>
@@ -143,7 +122,100 @@
     <t>Hộp-1</t>
   </si>
   <si>
-    <t>Sữa bột pha sẵn Vinamilk Sure Prevent Gold</t>
+    <t>SP01</t>
+  </si>
+  <si>
+    <t>SP02</t>
+  </si>
+  <si>
+    <t>SP03</t>
+  </si>
+  <si>
+    <t>SP04</t>
+  </si>
+  <si>
+    <t>SP05</t>
+  </si>
+  <si>
+    <t>SP06</t>
+  </si>
+  <si>
+    <t>SP07</t>
+  </si>
+  <si>
+    <t>SP08</t>
+  </si>
+  <si>
+    <t>SP09</t>
+  </si>
+  <si>
+    <t>SP10</t>
+  </si>
+  <si>
+    <t>Sữa bột Vinamilk Colos Gold</t>
+  </si>
+  <si>
+    <t>Mô tả cho Sữa Vinamilk</t>
+  </si>
+  <si>
+    <t>Cho trẻ em-1</t>
+  </si>
+  <si>
+    <t>Hộp thiếc-6</t>
+  </si>
+  <si>
+    <t>USA-7</t>
+  </si>
+  <si>
+    <t>Sữa tươi Vinamlik không đường</t>
+  </si>
+  <si>
+    <t>Mọi lứa tuổi-4</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Sữa bột Vinamilk Yoko Gold</t>
+  </si>
+  <si>
+    <t>China-3</t>
+  </si>
+  <si>
+    <t>Sữa tuôi tiệt trùng Vinamilk 100% hương dâu</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Japan-5</t>
+  </si>
+  <si>
+    <t>Sữa tươi tiệt trùng có đường Cô Gái Hà Lan</t>
+  </si>
+  <si>
+    <t>Sữa bột DUTCH LADY nguyên kem</t>
+  </si>
+  <si>
+    <t>Sữa tươi tiệt trùng Cô Gái Hà Lan vị Socola</t>
+  </si>
+  <si>
+    <t>Sữa bột Grow Plus hộp đỏ</t>
+  </si>
+  <si>
+    <t>Sữa Enplus Gold 900g</t>
+  </si>
+  <si>
+    <t>Nutifood-7</t>
+  </si>
+  <si>
+    <t>Sữa Famna số 4 850g</t>
+  </si>
+  <si>
+    <t>Hộp-4</t>
   </si>
 </sst>
 </file>
@@ -153,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +236,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -191,21 +269,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,25 +322,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>21648</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57727</xdr:rowOff>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1529773</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1565852</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1508125" cy="1508125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30EE98FD-86D0-FC66-2C2A-9CE087EC1707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EED422-82DF-4371-A3E1-AB2AAC7FCD59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -266,7 +357,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10362046" y="245341"/>
+          <a:off x="11819659" y="14944147"/>
           <a:ext cx="1508125" cy="1508125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -275,26 +366,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>21648</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7217</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1594717</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1508125" cy="1508125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A3F007-E70F-C26E-A6C4-60FD953402D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3480D219-EA53-49C4-AC4D-56DD800AAED6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -303,7 +389,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -316,8 +402,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10340399" y="1818410"/>
-          <a:ext cx="1594716" cy="1594716"/>
+          <a:off x="11754716" y="8586932"/>
+          <a:ext cx="1508125" cy="1508125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -325,58 +411,12 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1529772</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1529772</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66596FFB-2C72-F099-F258-79021F7AFB05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10340398" y="3449205"/>
-          <a:ext cx="1529772" cy="1529772"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,29 +717,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD6EE07-3C4B-4058-82E3-E28B5A81D489}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
     <col min="16" max="16" width="18.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -760,53 +800,53 @@
     </row>
     <row r="2" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2">
-        <v>123</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4">
         <v>45251</v>
       </c>
       <c r="K2" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L2" s="2">
-        <v>2000</v>
+        <v>330000</v>
       </c>
       <c r="M2" s="2">
-        <v>4000</v>
+        <v>440000</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="3">
+        <v>46</v>
+      </c>
+      <c r="P2" s="4">
         <v>45249</v>
       </c>
-      <c r="Q2" s="2">
-        <v>6945626151</v>
+      <c r="Q2" s="5">
+        <v>8934673001137</v>
       </c>
       <c r="R2" s="2">
         <v>1</v>
@@ -814,53 +854,53 @@
     </row>
     <row r="3" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2">
-        <v>123</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3">
-        <v>45251</v>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4">
+        <v>45994</v>
       </c>
       <c r="K3" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L3" s="2">
-        <v>2000</v>
+        <v>28000</v>
       </c>
       <c r="M3" s="2">
-        <v>4000</v>
+        <v>35000</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="3">
-        <v>45249</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1255165154</v>
+        <v>45</v>
+      </c>
+      <c r="P3" s="4">
+        <v>44941</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>8934673576390</v>
       </c>
       <c r="R3" s="2">
         <v>1</v>
@@ -868,74 +908,600 @@
     </row>
     <row r="4" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2">
-        <v>123</v>
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3">
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4">
         <v>45251</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K11" s="2">
         <v>20</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L11" s="2">
         <v>2000</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M11" s="2">
         <v>4000</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N11" s="2">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P11" s="4">
         <v>45249</v>
       </c>
-      <c r="Q4" s="2">
-        <v>8745216544</v>
-      </c>
-      <c r="R4" s="2">
+      <c r="Q11" s="5">
+        <v>6945626151</v>
+      </c>
+      <c r="R11" s="2">
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="2"/>
+    </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{4AE7DD2E-CBD1-4888-9AF0-0A2AAFD3243C}">
-      <formula1>"Vinamik-1,Nesle-2,Ductch Lady-3,Mead Johnson-4,Abbott-5,Friso-6"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{DEBAA4D1-F02B-47F0-9F2A-6B6D95B8C683}">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E24" xr:uid="{DEBAA4D1-F02B-47F0-9F2A-6B6D95B8C683}">
       <formula1>"Cho trẻ em-1,Cho người già-2,Cho bà bầu-3,Mọi lứa tuổi-4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{76FA00CC-1A3C-4E59-A605-9EA2C28B9941}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F24" xr:uid="{76FA00CC-1A3C-4E59-A605-9EA2C28B9941}">
       <formula1>"Sữa bột-1,Sữa tươi-2,Sữa không đường-3,Sữa hạt-4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{129835AA-AB74-48D1-B767-1AC28BE23C54}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G24" xr:uid="{129835AA-AB74-48D1-B767-1AC28BE23C54}">
       <formula1>"Vietnam-1,United States-2,China-3,Germany-4,Japan-5,Brazil-6,USA-7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{66323FFE-495B-4661-BA8B-350E518EC289}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H9 H5 H7 H12:H24" xr:uid="{66323FFE-495B-4661-BA8B-350E518EC289}">
       <formula1>"Hộp-1,Chai-2,Lọ-3,Túi-4,Gói-5,Cái-6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24" xr:uid="{269855C1-551A-485C-9F38-BDFCB7C06A8D}">
+      <formula1>"Vinamik-1,Nesle-2,Ductch Lady-3,Mead Johnson-4,Abbott-5,Friso-6,Nutifood-7,TH true milk-8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{4FC6B40A-49EE-4C6B-A8C2-810D5F4E9D43}">
+      <formula1>"Cho trẻ em-1,Cho người già-2,Cho bà bầu-3,Mọi lứa tuổi-4,Cho người loãng xương-5,Cho người bệnh-6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{B997633E-C206-46D4-836E-358F14E4B1CA}">
+      <formula1>"Sữa bột-1,Sữa tươi-2,Sữa không đường-3,Sữa hạt-4,Sữa ít đường-5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H4 H6 H8 H10:H11" xr:uid="{EA0FE8E7-A35E-46B7-BE09-D327C223C5AD}">
+      <formula1>"Hộp-1,Chai-2,Lọ-3,Túi-4,Gói-5,Hộp thiếc-6"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{E98CD6E7-33E9-40C0-BFDE-096A37683567}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4ec0c84bac4ab77/Desktop/ProjectMilkFE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="14_{A2B9246F-CB36-4DAC-973F-16AE70772692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8863BB53-98F9-4332-B1F5-E0CEE632300C}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="14_{A2B9246F-CB36-4DAC-973F-16AE70772692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE55E9A2-CF9E-4C1C-B742-4EFD6B29D49F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E4F2DB5-627F-4314-BE70-A825391ED28A}"/>
   </bookViews>
@@ -374,7 +374,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1508125" cy="1508125"/>
+    <xdr:ext cx="1544204" cy="1544204"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Picture 9">
@@ -402,8 +402,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11754716" y="8586932"/>
-          <a:ext cx="1508125" cy="1508125"/>
+          <a:off x="11754716" y="245341"/>
+          <a:ext cx="1544204" cy="1544204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -719,7 +719,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4ec0c84bac4ab77/Desktop/ProjectMilkFE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="14_{A2B9246F-CB36-4DAC-973F-16AE70772692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE55E9A2-CF9E-4C1C-B742-4EFD6B29D49F}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="14_{A2B9246F-CB36-4DAC-973F-16AE70772692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CC2A549-E39D-4604-8890-6823BC972643}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E4F2DB5-627F-4314-BE70-A825391ED28A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Mã xuất xứ</t>
   </si>
   <si>
-    <t>Vinamik-1</t>
-  </si>
-  <si>
-    <t>Cho người già-2</t>
-  </si>
-  <si>
     <t>Sữa không đường-3</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>Vietnam-1</t>
   </si>
   <si>
-    <t>Ductch Lady-3</t>
-  </si>
-  <si>
     <t>Sữa tươi-2</t>
   </si>
   <si>
@@ -122,39 +113,6 @@
     <t>Hộp-1</t>
   </si>
   <si>
-    <t>SP01</t>
-  </si>
-  <si>
-    <t>SP02</t>
-  </si>
-  <si>
-    <t>SP03</t>
-  </si>
-  <si>
-    <t>SP04</t>
-  </si>
-  <si>
-    <t>SP05</t>
-  </si>
-  <si>
-    <t>SP06</t>
-  </si>
-  <si>
-    <t>SP07</t>
-  </si>
-  <si>
-    <t>SP08</t>
-  </si>
-  <si>
-    <t>SP09</t>
-  </si>
-  <si>
-    <t>SP10</t>
-  </si>
-  <si>
-    <t>Sữa bột Vinamilk Colos Gold</t>
-  </si>
-  <si>
     <t>Mô tả cho Sữa Vinamilk</t>
   </si>
   <si>
@@ -167,9 +125,6 @@
     <t>USA-7</t>
   </si>
   <si>
-    <t>Sữa tươi Vinamlik không đường</t>
-  </si>
-  <si>
     <t>Mọi lứa tuổi-4</t>
   </si>
   <si>
@@ -179,43 +134,109 @@
     <t>Kg</t>
   </si>
   <si>
-    <t>Sữa bột Vinamilk Yoko Gold</t>
-  </si>
-  <si>
     <t>China-3</t>
   </si>
   <si>
-    <t>Sữa tuôi tiệt trùng Vinamilk 100% hương dâu</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>Japan-5</t>
   </si>
   <si>
-    <t>Sữa tươi tiệt trùng có đường Cô Gái Hà Lan</t>
-  </si>
-  <si>
-    <t>Sữa bột DUTCH LADY nguyên kem</t>
-  </si>
-  <si>
-    <t>Sữa tươi tiệt trùng Cô Gái Hà Lan vị Socola</t>
-  </si>
-  <si>
-    <t>Sữa bột Grow Plus hộp đỏ</t>
-  </si>
-  <si>
-    <t>Sữa Enplus Gold 900g</t>
-  </si>
-  <si>
     <t>Nutifood-7</t>
   </si>
   <si>
-    <t>Sữa Famna số 4 850g</t>
-  </si>
-  <si>
-    <t>Hộp-4</t>
+    <t>Sữa Nuvi Grow 900g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thức Uống Lúa Mạch Nestlé MILO Sữa 3 Trong 1</t>
+  </si>
+  <si>
+    <t>Nesle-2</t>
+  </si>
+  <si>
+    <t>Sữa tươi NutriStrong</t>
+  </si>
+  <si>
+    <t>Sữa Enfamama A+ DHA hương vani cho mẹ bầu</t>
+  </si>
+  <si>
+    <t>Mead Johnson-4</t>
+  </si>
+  <si>
+    <t>Cho bà bầu-3</t>
+  </si>
+  <si>
+    <t>Sữa bột Frisolac Gold số 4 850g</t>
+  </si>
+  <si>
+    <t>Friso-6</t>
+  </si>
+  <si>
+    <t>Sữa bột Abbott Grow 3 900g</t>
+  </si>
+  <si>
+    <t>Abbott-5</t>
+  </si>
+  <si>
+    <t>Brazil-6</t>
+  </si>
+  <si>
+    <t>Sữa bột pha sẵn PediaSure socola 237ml</t>
+  </si>
+  <si>
+    <t>Sữa hạt óc chó TH true nut 180ml</t>
+  </si>
+  <si>
+    <t>TH true milk-8</t>
+  </si>
+  <si>
+    <t>Sữa hạt-4</t>
+  </si>
+  <si>
+    <t>Sữa tươi tiệt trùng trùng ít đường TH true milk</t>
+  </si>
+  <si>
+    <t>Sữa trái cây TH True Milk vị dâu 300ml</t>
+  </si>
+  <si>
+    <t>Sữa ít đường-5</t>
+  </si>
+  <si>
+    <t>SP011</t>
+  </si>
+  <si>
+    <t>SP012</t>
+  </si>
+  <si>
+    <t>SP013</t>
+  </si>
+  <si>
+    <t>SP014</t>
+  </si>
+  <si>
+    <t>SP015</t>
+  </si>
+  <si>
+    <t>SP016</t>
+  </si>
+  <si>
+    <t>SP017</t>
+  </si>
+  <si>
+    <t>SP018</t>
+  </si>
+  <si>
+    <t>SP019</t>
+  </si>
+  <si>
+    <t>SP020</t>
+  </si>
+  <si>
+    <t>Túi-4</t>
+  </si>
+  <si>
+    <t>Chai-2</t>
   </si>
 </sst>
 </file>
@@ -288,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -301,6 +322,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -322,20 +355,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:colOff>58355</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50574</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1508125" cy="1508125"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1761702</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1526809</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EED422-82DF-4371-A3E1-AB2AAC7FCD59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6460989-C575-050F-664D-4EC463751DB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -344,7 +382,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -357,8 +395,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11819659" y="14944147"/>
-          <a:ext cx="1508125" cy="1508125"/>
+          <a:off x="11800236" y="244446"/>
+          <a:ext cx="1703347" cy="1476235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -366,21 +404,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>21648</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57727</xdr:rowOff>
+      <xdr:colOff>109579</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160156</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1544204" cy="1544204"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1765976</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1432966</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3480D219-EA53-49C4-AC4D-56DD800AAED6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923D8287-5B2D-C5E4-9BBE-94D1E5DBBBB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -389,7 +432,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -402,8 +445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11754716" y="245341"/>
-          <a:ext cx="1544204" cy="1544204"/>
+          <a:off x="11851460" y="1980864"/>
+          <a:ext cx="1656397" cy="1272810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -411,7 +454,407 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16859</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>151726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1677412</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1550974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0241B1C-4D06-85C2-8461-97F2E6230C48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11758740" y="3599270"/>
+          <a:ext cx="1660553" cy="1399248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320311</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>92721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1567833</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1596910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AE1E5C-CE54-44A8-F40C-6CABFDD7D335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12062192" y="5167102"/>
+          <a:ext cx="1247522" cy="1504189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>193872</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>92721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1677411</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1570254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14159F7B-6849-FCE0-14C4-EAE9BD745D5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11935753" y="6793938"/>
+          <a:ext cx="1483539" cy="1477533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168584</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>84292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1652123</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1567831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED85725-4AE5-2697-8393-4298254EED12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11910465" y="8412345"/>
+          <a:ext cx="1483539" cy="1483539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236018</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>252876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1812279</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1433923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E8FE05-3401-E040-8B30-E4DCD33973AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11977899" y="10207765"/>
+          <a:ext cx="1576261" cy="1181047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101151</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>92722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1812279</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1475111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82002B60-A0D5-4B65-15BD-84B0D25F1DBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11843032" y="11674448"/>
+          <a:ext cx="1711128" cy="1382389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50576</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>67433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1777705</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1365530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC74C524-18E4-8AAD-26CD-DBD4F75F4FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11792457" y="13275995"/>
+          <a:ext cx="1727129" cy="1298097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134865</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>109580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1748838</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1534116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A7AAB5-5A5F-721D-C730-8949BFA57A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11876746" y="14944978"/>
+          <a:ext cx="1613973" cy="1424536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -719,8 +1162,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,88 +1208,88 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="4">
-        <v>45251</v>
+        <v>46387</v>
       </c>
       <c r="K2" s="2">
         <v>50</v>
       </c>
       <c r="L2" s="2">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="M2" s="2">
-        <v>440000</v>
+        <v>290000</v>
       </c>
       <c r="N2" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="P2" s="4">
-        <v>45249</v>
+        <v>45067</v>
       </c>
       <c r="Q2" s="5">
-        <v>8934673001137</v>
+        <v>8935049014010</v>
       </c>
       <c r="R2" s="2">
         <v>1</v>
@@ -854,53 +1297,53 @@
     </row>
     <row r="3" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="4">
-        <v>45994</v>
+        <v>46022</v>
       </c>
       <c r="K3" s="2">
         <v>80</v>
       </c>
       <c r="L3" s="2">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M3" s="2">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="P3" s="4">
-        <v>44941</v>
+        <v>45092</v>
       </c>
       <c r="Q3" s="5">
-        <v>8934673576390</v>
+        <v>8934804040783</v>
       </c>
       <c r="R3" s="2">
         <v>1</v>
@@ -908,569 +1351,694 @@
     </row>
     <row r="4" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4">
+        <v>46387</v>
+      </c>
+      <c r="K4" s="2">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="M4" s="2">
+        <v>8000</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="2"/>
+      <c r="P4" s="4">
+        <v>45108</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>8934804033051</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="2"/>
+      <c r="J5" s="4">
+        <v>46022</v>
+      </c>
+      <c r="K5" s="2">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2">
+        <v>380000</v>
+      </c>
+      <c r="M5" s="2">
+        <v>480000</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="4">
+        <v>45122</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>300875132203</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="2"/>
+      <c r="J6" s="4">
+        <v>46022</v>
+      </c>
+      <c r="K6" s="2">
+        <v>70</v>
+      </c>
+      <c r="L6" s="2">
+        <v>380000</v>
+      </c>
+      <c r="M6" s="2">
+        <v>480000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="4">
+        <v>45139</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>8936036774658</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="2"/>
+      <c r="J7" s="4">
+        <v>46387</v>
+      </c>
+      <c r="K7" s="2">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
+        <v>230000</v>
+      </c>
+      <c r="M7" s="2">
+        <v>280000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="4">
+        <v>45153</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>5099864008739</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4">
+        <v>46387</v>
+      </c>
+      <c r="K8" s="2">
         <v>50</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="2"/>
+      <c r="L8" s="2">
+        <v>26000</v>
+      </c>
+      <c r="M8" s="2">
+        <v>38000</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="4">
+        <v>45170</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>7007412005</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="2"/>
+      <c r="J9" s="4">
+        <v>46387</v>
+      </c>
+      <c r="K9" s="2">
+        <v>80</v>
+      </c>
+      <c r="L9" s="2">
+        <v>11000</v>
+      </c>
+      <c r="M9" s="2">
+        <v>15000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="4">
+        <v>45184</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>893521746414</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="2"/>
+      <c r="J10" s="4">
+        <v>46022</v>
+      </c>
+      <c r="K10" s="2">
+        <v>60</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6000</v>
+      </c>
+      <c r="M10" s="2">
+        <v>9000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="4">
+        <v>45200</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>8935217400393</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="4">
-        <v>45251</v>
+        <v>46387</v>
       </c>
       <c r="K11" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L11" s="2">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="M11" s="2">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P11" s="4">
-        <v>45249</v>
+        <v>45275</v>
       </c>
       <c r="Q11" s="5">
-        <v>6945626151</v>
+        <v>8936127794107</v>
       </c>
       <c r="R11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="2"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="2"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="2"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="2"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="2"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="2"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="2"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="2"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="2"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="2"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="2"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="2"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="2"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1478,13 +2046,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E24" xr:uid="{DEBAA4D1-F02B-47F0-9F2A-6B6D95B8C683}">
       <formula1>"Cho trẻ em-1,Cho người già-2,Cho bà bầu-3,Mọi lứa tuổi-4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F24" xr:uid="{76FA00CC-1A3C-4E59-A605-9EA2C28B9941}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F24" xr:uid="{76FA00CC-1A3C-4E59-A605-9EA2C28B9941}">
       <formula1>"Sữa bột-1,Sữa tươi-2,Sữa không đường-3,Sữa hạt-4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G24" xr:uid="{129835AA-AB74-48D1-B767-1AC28BE23C54}">
       <formula1>"Vietnam-1,United States-2,China-3,Germany-4,Japan-5,Brazil-6,USA-7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H9 H5 H7 H12:H24" xr:uid="{66323FFE-495B-4661-BA8B-350E518EC289}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H24" xr:uid="{66323FFE-495B-4661-BA8B-350E518EC289}">
       <formula1>"Hộp-1,Chai-2,Lọ-3,Túi-4,Gói-5,Cái-6"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24" xr:uid="{269855C1-551A-485C-9F38-BDFCB7C06A8D}">
@@ -1493,10 +2061,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{4FC6B40A-49EE-4C6B-A8C2-810D5F4E9D43}">
       <formula1>"Cho trẻ em-1,Cho người già-2,Cho bà bầu-3,Mọi lứa tuổi-4,Cho người loãng xương-5,Cho người bệnh-6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{B997633E-C206-46D4-836E-358F14E4B1CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{B997633E-C206-46D4-836E-358F14E4B1CA}">
       <formula1>"Sữa bột-1,Sữa tươi-2,Sữa không đường-3,Sữa hạt-4,Sữa ít đường-5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H4 H6 H8 H10:H11" xr:uid="{EA0FE8E7-A35E-46B7-BE09-D327C223C5AD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H11" xr:uid="{EA0FE8E7-A35E-46B7-BE09-D327C223C5AD}">
       <formula1>"Hộp-1,Chai-2,Lọ-3,Túi-4,Gói-5,Hộp thiếc-6"</formula1>
     </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{E98CD6E7-33E9-40C0-BFDE-096A37683567}">
